--- a/Aufgaben_TestOverview.xlsx
+++ b/Aufgaben_TestOverview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="17715" windowHeight="6210"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="13545" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <t>Gruppe Testoverview Aufgaben mit Priorisierung</t>
   </si>
   <si>
-    <t>Wichtige Aufgaben:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Einheitliche Gui erstellen </t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>Ranking</t>
   </si>
   <si>
-    <t>Aufgaben die auf jeden fall fertigzustellen sind:</t>
-  </si>
-  <si>
     <t>XML Export</t>
   </si>
   <si>
@@ -72,13 +66,19 @@
     <t>Tabel erstellen um performanz zu verbessern</t>
   </si>
   <si>
-    <t>Grahiken für die filter anpassen</t>
-  </si>
-  <si>
     <t>Graphik einzelne Tests zu allen studenten</t>
   </si>
   <si>
     <t>Graphik für Teilaufgaben</t>
+  </si>
+  <si>
+    <t>Aufgaben die auf jeden fall  fertigzustellen sind:</t>
+  </si>
+  <si>
+    <t>Wichtige Aufgaben bis vor Weinachten:</t>
+  </si>
+  <si>
+    <t>Graphiken für die filter anpassen</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,102 +452,102 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Aufgaben_TestOverview.xlsx
+++ b/Aufgaben_TestOverview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="13545" windowHeight="6210"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="12825" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Gruppe Testoverview Aufgaben mit Priorisierung</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Graphiken für die filter anpassen</t>
+  </si>
+  <si>
+    <t>Tutor sieht nur seine sachen</t>
+  </si>
+  <si>
+    <t>Test fertigstellen und databay schicken</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,11 +501,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
@@ -515,11 +516,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
@@ -535,6 +531,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>14</v>
@@ -548,6 +549,21 @@
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
